--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>614659.824045185</v>
+        <v>698340.3979660786</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12454934.45781348</v>
+        <v>12477039.73816156</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5696660.572628298</v>
+        <v>7009463.231764773</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9765443.051637171</v>
+        <v>9126030.188353421</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>336.0335479449733</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78.1636065770829</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>39.70122005612006</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>83.94550301703326</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.17372043046388</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>137.5750138932992</v>
+        <v>49.9838314936302</v>
       </c>
       <c r="T3" t="n">
-        <v>192.7632183107638</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8205739680685</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>112.751666541193</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553079</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.8615574464608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="W5" t="n">
-        <v>9.99112361440169</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>156.2640235680252</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>79.4165396514655</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>160.2733359583709</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>183.2066400136035</v>
       </c>
       <c r="C8" t="n">
-        <v>99.59933623926791</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,10 +1277,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>188.8454718133048</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>52.23490948285971</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>170.7007650895372</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>30.77469809480214</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>340.4305215399082</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>114.2656173771021</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>229.7965692041379</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>241.2961069777039</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.7576914549238</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>82.5794608326194</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>10.2872313328145</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>162.5876496242963</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>15.42290135054919</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>161.6707081197638</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>24.9028221586777</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>111.9441039100343</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>124.4676539348176</v>
+        <v>118.3069478219486</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>256.7273523546859</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>16.32203054610675</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>6.38006817584838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>142.6955872305736</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>268.9078486702793</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>258.2775521997487</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>46.90342393179426</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>17.15794421524323</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>186.8250998946393</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>86.3626692775125</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>121.9845242150809</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>68.35584245823071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>349.4526337405161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C34" t="n">
-        <v>50.67976296843104</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>126.5388824951704</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>341.0298525897912</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3478,19 +3480,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>19.58945082857547</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>148.5873298926978</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X38" t="n">
-        <v>287.1806053344201</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36.0045690759197</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>37.59617708813283</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3746,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0.2901074925135481</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>77.12676199618085</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>142.6955872305736</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3983,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -4028,19 +4030,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>134.0513867710703</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>201.8731589524253</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>61.91576449868327</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>117.7386267429566</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1138.113490527231</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="C2" t="n">
-        <v>769.1509735868196</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="D2" t="n">
-        <v>769.1509735868196</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="E2" t="n">
-        <v>769.1509735868196</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="F2" t="n">
-        <v>769.1509735868196</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="G2" t="n">
-        <v>429.7231473797759</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>122.3223344947425</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>43.36919653809311</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K2" t="n">
-        <v>366.8168396232718</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>669.5878927711869</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>1417.286540135168</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>1761.960612545598</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.630958172449</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>2168.459826904656</v>
+        <v>710.0001061843515</v>
       </c>
       <c r="T2" t="n">
-        <v>2168.459826904656</v>
+        <v>710.0001061843515</v>
       </c>
       <c r="U2" t="n">
-        <v>1914.852662567165</v>
+        <v>710.0001061843515</v>
       </c>
       <c r="V2" t="n">
-        <v>1914.852662567165</v>
+        <v>520.5803211678664</v>
       </c>
       <c r="W2" t="n">
-        <v>1914.852662567165</v>
+        <v>520.5803211678664</v>
       </c>
       <c r="X2" t="n">
-        <v>1914.852662567165</v>
+        <v>331.1605361513813</v>
       </c>
       <c r="Y2" t="n">
-        <v>1524.713330591353</v>
+        <v>141.7407511348962</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>533.4666540631147</v>
+        <v>320.7740599518762</v>
       </c>
       <c r="C3" t="n">
-        <v>448.673216672172</v>
+        <v>320.7740599518762</v>
       </c>
       <c r="D3" t="n">
-        <v>448.673216672172</v>
+        <v>320.7740599518762</v>
       </c>
       <c r="E3" t="n">
-        <v>448.673216672172</v>
+        <v>161.5366049464207</v>
       </c>
       <c r="F3" t="n">
-        <v>302.138658699057</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>165.2626649141729</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>69.80729798300612</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>43.36919653809311</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>89.55356510562336</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>508.4654164929051</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>766.0165520528931</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>1085.923447521403</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>1428.705971516035</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>1720.065217770601</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>2061.27154741545</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>2154.74554605989</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S3" t="n">
-        <v>2029.495166406374</v>
+        <v>699.6136299848463</v>
       </c>
       <c r="T3" t="n">
-        <v>1834.78484488035</v>
+        <v>510.1938449683612</v>
       </c>
       <c r="U3" t="n">
-        <v>1606.683255013614</v>
+        <v>320.7740599518762</v>
       </c>
       <c r="V3" t="n">
-        <v>1371.531146781871</v>
+        <v>320.7740599518762</v>
       </c>
       <c r="W3" t="n">
-        <v>1117.293790053669</v>
+        <v>320.7740599518762</v>
       </c>
       <c r="X3" t="n">
-        <v>909.4422898481366</v>
+        <v>320.7740599518762</v>
       </c>
       <c r="Y3" t="n">
-        <v>701.6819910831828</v>
+        <v>320.7740599518762</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1085.65483563466</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="C4" t="n">
-        <v>916.7186527067531</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="D4" t="n">
-        <v>766.6020132944174</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="E4" t="n">
-        <v>618.6889197120242</v>
+        <v>636.2117764014495</v>
       </c>
       <c r="F4" t="n">
-        <v>471.7989722141139</v>
+        <v>489.3218289035391</v>
       </c>
       <c r="G4" t="n">
-        <v>303.6661428091322</v>
+        <v>320.6330054664541</v>
       </c>
       <c r="H4" t="n">
-        <v>153.6259293129249</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I4" t="n">
-        <v>43.36919653809311</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
-        <v>58.69630920174244</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>213.7203003246708</v>
+        <v>106.7151088594235</v>
       </c>
       <c r="L4" t="n">
-        <v>467.6240706728887</v>
+        <v>216.0634826394166</v>
       </c>
       <c r="M4" t="n">
-        <v>745.7191196640791</v>
+        <v>401.7138139340736</v>
       </c>
       <c r="N4" t="n">
-        <v>1022.636306385109</v>
+        <v>587.3641452287306</v>
       </c>
       <c r="O4" t="n">
-        <v>1262.397853152953</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="P4" t="n">
-        <v>1444.034594271087</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Q4" t="n">
-        <v>1486.355378693648</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R4" t="n">
-        <v>1486.355378693648</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S4" t="n">
-        <v>1486.355378693648</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T4" t="n">
-        <v>1486.355378693648</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U4" t="n">
-        <v>1486.355378693648</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V4" t="n">
-        <v>1486.355378693648</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="W4" t="n">
-        <v>1486.355378693648</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="X4" t="n">
-        <v>1486.355378693648</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Y4" t="n">
-        <v>1267.3033004649</v>
+        <v>750.1023486652808</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1634.158487398107</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.158487398107</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>820.230080101654</v>
       </c>
       <c r="W5" t="n">
-        <v>1634.158487398107</v>
+        <v>553.8524235344762</v>
       </c>
       <c r="X5" t="n">
-        <v>1634.158487398107</v>
+        <v>553.8524235344762</v>
       </c>
       <c r="Y5" t="n">
-        <v>1634.158487398107</v>
+        <v>287.4747669672984</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>930.1763583891328</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>730.0408897681439</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>730.0408897681439</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>730.0408897681439</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>475.8035330399423</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.2467865680031</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S7" t="n">
-        <v>1556.227393153825</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="T7" t="n">
-        <v>1333.24891234856</v>
+        <v>557.3836987074096</v>
       </c>
       <c r="U7" t="n">
-        <v>1044.130574852398</v>
+        <v>291.0060421402317</v>
       </c>
       <c r="V7" t="n">
-        <v>789.4460866465112</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="W7" t="n">
-        <v>500.0289166095505</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="X7" t="n">
-        <v>272.0393657115332</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.2467865680031</v>
+        <v>36.32155393434486</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796256</v>
+        <v>1983.4026147697</v>
       </c>
       <c r="C8" t="n">
-        <v>821.1650657389509</v>
+        <v>1614.440097829288</v>
       </c>
       <c r="D8" t="n">
-        <v>821.1650657389509</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="E8" t="n">
-        <v>821.1650657389509</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2168.459826904653</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>758.3254512019777</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>583.8724219208507</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>434.9380122595995</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>275.700557254144</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>508.4654164929048</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>766.0165520528924</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1085.923447521402</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1428.705971516033</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1720.065217770599</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>1934.5736333315</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>1606.683255013611</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1371.531146781868</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1117.293790053667</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>926.5407882220456</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>926.5407882220456</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.8175152271517</v>
+        <v>769.8287052088427</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8175152271517</v>
+        <v>769.8287052088427</v>
       </c>
       <c r="D10" t="n">
-        <v>362.8175152271517</v>
+        <v>619.712065796507</v>
       </c>
       <c r="E10" t="n">
-        <v>362.8175152271517</v>
+        <v>471.7989722141139</v>
       </c>
       <c r="F10" t="n">
-        <v>362.8175152271517</v>
+        <v>471.7989722141139</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1313.93036345169</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1059.245875245803</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>769.8287052088427</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>769.8287052088427</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.8175152271517</v>
+        <v>769.8287052088427</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1267.635416552713</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.635416552713</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="D11" t="n">
-        <v>909.3697179459625</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E11" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5063,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3294.520267978057</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3294.520267978057</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883006</v>
+        <v>3040.989791251894</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539436</v>
+        <v>2709.926903908323</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.243802269321</v>
+        <v>2357.158248638209</v>
       </c>
       <c r="X11" t="n">
-        <v>2044.374588592646</v>
+        <v>1983.692490377129</v>
       </c>
       <c r="Y11" t="n">
-        <v>1654.235256616835</v>
+        <v>1593.553158401317</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5188,13 +5190,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5221,19 +5223,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W13" t="n">
         <v>1722.044275313594</v>
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1590.514489367197</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C14" t="n">
-        <v>1221.551972426786</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D14" t="n">
-        <v>863.2862738200351</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E14" t="n">
-        <v>477.498021221791</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>3093.488074938325</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>2740.71941966821</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.25366140713</v>
+        <v>1938.532613261925</v>
       </c>
       <c r="Y14" t="n">
-        <v>1977.114329431319</v>
+        <v>1548.393281286113</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5348,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>711.2880532342227</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>561.171413821887</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>561.171413821887</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5473,13 +5475,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1590.514489367197</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="C17" t="n">
-        <v>1221.551972426786</v>
+        <v>1242.542113288977</v>
       </c>
       <c r="D17" t="n">
-        <v>863.2862738200351</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E17" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218343</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3051.085204020816</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.085204020816</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2720.022316677245</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2367.25366140713</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>2367.25366140713</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y17" t="n">
-        <v>1977.114329431319</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>249.7936412903424</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="C19" t="n">
-        <v>234.2149530574645</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574645</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W19" t="n">
-        <v>880.2242361621296</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X19" t="n">
-        <v>652.2346852641123</v>
+        <v>930.7862773957696</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.4421061205821</v>
+        <v>709.9936982522395</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1559.116588708439</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="C20" t="n">
-        <v>1190.154071768027</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D20" t="n">
-        <v>1190.154071768027</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>3006.553221559016</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V20" t="n">
-        <v>2675.490334215445</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W20" t="n">
-        <v>2322.72167894533</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X20" t="n">
-        <v>1949.255920684251</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y20" t="n">
-        <v>1559.116588708439</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5828,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2446.713673999041</v>
+        <v>1042.179465010818</v>
       </c>
       <c r="C22" t="n">
-        <v>2320.988771034579</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D22" t="n">
-        <v>2170.872131622243</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.95903803985</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F22" t="n">
-        <v>1876.06909054194</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>1708.366253916659</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>3103.839206178698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U22" t="n">
-        <v>3103.839206178698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V22" t="n">
-        <v>2849.154717972811</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W22" t="n">
-        <v>2849.154717972811</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="X22" t="n">
-        <v>2849.154717972811</v>
+        <v>1444.620508984588</v>
       </c>
       <c r="Y22" t="n">
-        <v>2628.362138829281</v>
+        <v>1223.827929841058</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.569348694473</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.606831754061</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="D23" t="n">
-        <v>1122.606831754061</v>
+        <v>879.7731733615572</v>
       </c>
       <c r="E23" t="n">
-        <v>736.8185791558171</v>
+        <v>493.9849207633129</v>
       </c>
       <c r="F23" t="n">
-        <v>325.8326743662096</v>
+        <v>82.99901597370535</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>82.99901597370535</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>82.99901597370535</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>2994.542934265601</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W23" t="n">
-        <v>2641.774278995486</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.308520734407</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.169188758595</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="24">
@@ -6057,31 +6059,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
         <v>2407.411984886741</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1640.204086189707</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C25" t="n">
-        <v>1471.2679032618</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D25" t="n">
-        <v>1464.823389952862</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.823389952862</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.823389952862</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.823389952862</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952862</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399798</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>3103.839206178698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>2814.736339304341</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V25" t="n">
-        <v>2560.051851098454</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W25" t="n">
-        <v>2270.634681061494</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="X25" t="n">
-        <v>2042.645130163476</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y25" t="n">
-        <v>1821.852551019946</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2047.583838282732</v>
+        <v>2201.7190780849</v>
       </c>
       <c r="C26" t="n">
-        <v>1678.62132134232</v>
+        <v>1832.756561144488</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>1474.490862537738</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>1088.702609939494</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>677.7167051498861</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V26" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W26" t="n">
-        <v>2811.188928519624</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X26" t="n">
-        <v>2437.723170258544</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y26" t="n">
-        <v>2047.583838282732</v>
+        <v>2588.318918149022</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
         <v>176.0213023927779</v>
@@ -6303,22 +6305,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.0546934046018</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6406,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W28" t="n">
-        <v>970.0546934046018</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X28" t="n">
-        <v>970.0546934046018</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y28" t="n">
-        <v>970.0546934046018</v>
+        <v>345.4862584440777</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1594.601034732593</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C29" t="n">
-        <v>1225.638517792182</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D29" t="n">
-        <v>867.3728191854311</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>1984.740366708405</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1594.601034732593</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6531,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218343</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6658,13 +6660,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W31" t="n">
-        <v>590.8070661251691</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X31" t="n">
-        <v>362.8175152271517</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.0249360836216</v>
+        <v>652.2346852641123</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1661.795585684488</v>
+        <v>2003.254328486386</v>
       </c>
       <c r="C32" t="n">
-        <v>1292.833068744076</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D32" t="n">
-        <v>934.5673701373257</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
@@ -6701,7 +6703,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6728,22 +6730,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883006</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539436</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W32" t="n">
-        <v>2388.243802269321</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.778044008242</v>
+        <v>2393.393660462198</v>
       </c>
       <c r="Y32" t="n">
-        <v>1661.795585684488</v>
+        <v>2003.254328486386</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L33" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2372.180450800669</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034577</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622242</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.959038039849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>3036.502954734814</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>2781.818466528927</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>2781.818466528927</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>2553.828915630909</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>2553.828915630909</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1619.798686923957</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C35" t="n">
-        <v>1250.836169983545</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329463</v>
@@ -6950,37 +6952,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>3072.075344883008</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V35" t="n">
-        <v>2741.012457539437</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W35" t="n">
-        <v>2396.53785896389</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X35" t="n">
-        <v>2396.53785896389</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y35" t="n">
-        <v>2006.398526988078</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U37" t="n">
-        <v>1513.842048484845</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V37" t="n">
-        <v>1513.842048484845</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W37" t="n">
-        <v>1513.842048484845</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="X37" t="n">
-        <v>1494.054724415577</v>
+        <v>1761.128788747829</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.262145272047</v>
+        <v>1611.040576735003</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1892.184635123826</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1523.222118183415</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>1164.956419576664</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>779.1681669784198</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
         <v>66.5121164321834</v>
@@ -7181,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7202,22 +7204,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W38" t="n">
-        <v>2182.266054653544</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X38" t="n">
-        <v>1892.184635123826</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>1892.184635123826</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7251,13 +7253,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>2078.679253373406</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>1909.7430704455</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>1759.626431033164</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>1611.713337450771</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959802</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H40" t="n">
-        <v>163.837793613838</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U40" t="n">
-        <v>1638.191681214136</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V40" t="n">
-        <v>1638.191681214136</v>
+        <v>2998.527018282154</v>
       </c>
       <c r="W40" t="n">
-        <v>1348.774511177176</v>
+        <v>2709.109848245193</v>
       </c>
       <c r="X40" t="n">
-        <v>1348.774511177176</v>
+        <v>2481.120297347176</v>
       </c>
       <c r="Y40" t="n">
-        <v>1127.981932033646</v>
+        <v>2260.327718203646</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1548.393281286113</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C41" t="n">
-        <v>1179.430764345701</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D41" t="n">
-        <v>821.1650657389509</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E41" t="n">
-        <v>821.1650657389509</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912088</v>
@@ -7433,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.312783737945</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3071.782307011781</v>
       </c>
       <c r="V41" t="n">
-        <v>2677.901108596161</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="W41" t="n">
-        <v>2325.132453326047</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X41" t="n">
-        <v>2325.132453326047</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y41" t="n">
-        <v>1934.993121350235</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556937</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.64310427581</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609103</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635988</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686066</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064741</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I42" t="n">
-        <v>827.064395508012</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K42" t="n">
         <v>1159.005863978977</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N42" t="n">
         <v>2446.503393068413</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201685</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695165</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T42" t="n">
         <v>3003.380581373021</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507436</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547492</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.071769341959</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577005</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.5121164321834</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C43" t="n">
-        <v>66.5121164321834</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D43" t="n">
-        <v>66.5121164321834</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7594,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046018</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676413</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="X43" t="n">
-        <v>452.6479724696239</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y43" t="n">
-        <v>231.8553933260938</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1091.323932370578</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C44" t="n">
-        <v>722.3614154301667</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D44" t="n">
-        <v>364.0957168234162</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E44" t="n">
-        <v>364.0957168234162</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F44" t="n">
-        <v>364.0957168234162</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="X44" t="n">
-        <v>1868.063104410512</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y44" t="n">
-        <v>1477.9237724347</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7731,40 +7733,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7780,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>482.8906159540807</v>
+        <v>691.6489789975192</v>
       </c>
       <c r="C46" t="n">
-        <v>313.9544330261738</v>
+        <v>522.7127960696123</v>
       </c>
       <c r="D46" t="n">
-        <v>163.837793613838</v>
+        <v>372.5961566572765</v>
       </c>
       <c r="E46" t="n">
-        <v>163.837793613838</v>
+        <v>372.5961566572765</v>
       </c>
       <c r="F46" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G46" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1718.536185045054</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1429.433318170698</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V46" t="n">
-        <v>1174.748829964811</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W46" t="n">
-        <v>885.3316599278505</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X46" t="n">
-        <v>885.3316599278505</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y46" t="n">
-        <v>664.5390807843204</v>
+        <v>873.2974438277589</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>127.9776909938867</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8140,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>98.29368706161306</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111062</v>
+        <v>97.32166909127288</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>141.8304999279933</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22559,10 +22561,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>75.8371868986535</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368126</v>
       </c>
       <c r="S2" t="n">
-        <v>130.8133087092504</v>
+        <v>119.074593133933</v>
       </c>
       <c r="T2" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038147</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121488</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>198.7123514897334</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>88.76299597128248</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714232</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>99.7864131973194</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7.884010625681015</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.33818124377072</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22702,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>33.68229610537614</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845744</v>
       </c>
       <c r="R4" t="n">
-        <v>108.0728512656385</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1876907596158</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22771,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.723095905633983</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22790,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>95.47307296480832</v>
       </c>
       <c r="W5" t="n">
-        <v>339.2498451030113</v>
+        <v>85.52708871590693</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="6">
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22875,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22914,22 +22916,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>38.57696401685163</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,13 +22956,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>115.245920710272</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>62.94100992119493</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>22.54475050117139</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>199.5272016498771</v>
       </c>
       <c r="C8" t="n">
-        <v>265.6735555317396</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23109,7 +23111,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23118,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23163,10 +23165,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>16.92751339017263</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23182,16 +23184,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>115.5342927261795</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23261,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>78.4130636933737</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>29.30057913856086</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>172.2573809594889</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23548,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>97.95568926599702</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>128.4349937007651</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.84158719031184</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23735,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>344.3958102878685</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>41.33032051532382</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>151.8239197480787</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>64.03894726927336</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>340.3700696123299</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>139.0510680488677</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>42.77916716381024</v>
+        <v>48.93987327667921</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24206,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>154.1943732987676</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>25.25489922681921</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,7 +24262,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>142.235404842364</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24417,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>83.0140681584636</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>142.0138769831742</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>90.96341651766431</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>120.3433971668336</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>201.4267091368516</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>167.8579417260436</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24743,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>283.3684314009565</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>45.26229688354692</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,13 +24919,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>296.9170493127768</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>36.78530491553744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C34" t="n">
-        <v>116.5670581301968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25160,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,16 +25210,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>124.4562894637316</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>8.211116127621835</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>206.1202045604617</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>69.99732345939702</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25400,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25442,22 +25444,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X38" t="n">
-        <v>82.5504953440489</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>143.8274111060176</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>214.5414662356952</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.6278626471066</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>250.6254964739541</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.142136056966</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>83.0140681584636</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>116.9437851878317</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>167.8579417260437</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>83.50528352424797</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>101.8103225332126</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>718396.6610026546</v>
+        <v>463673.9492869361</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>786603.5371079206</v>
+        <v>526021.0465876195</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>863471.7387975235</v>
+        <v>718396.6610026539</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975237</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>863471.7387975233</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>863471.7387975233</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975237</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279547.2423401898</v>
+        <v>180441.6164408227</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943086</v>
+        <v>203966.5811971124</v>
       </c>
       <c r="D2" t="n">
+        <v>279547.2423401895</v>
+      </c>
+      <c r="E2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="E2" t="n">
-        <v>340997.0989709207</v>
       </c>
       <c r="F2" t="n">
         <v>340997.0989709206</v>
@@ -26329,31 +26331,31 @@
         <v>340997.0989709205</v>
       </c>
       <c r="H2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="I2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="J2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="K2" t="n">
         <v>340997.0989709206</v>
       </c>
-      <c r="I2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="J2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="K2" t="n">
-        <v>340997.0989709207</v>
-      </c>
       <c r="L2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="M2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="N2" t="n">
         <v>340997.0989709204</v>
-      </c>
-      <c r="M2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="N2" t="n">
-        <v>340997.0989709205</v>
       </c>
       <c r="O2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1004321.885230094</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>104983.4505300427</v>
+        <v>84336.10254477357</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>291724.1809599827</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>276030.74576691</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>141841.1257376603</v>
+        <v>49064.94472854474</v>
       </c>
       <c r="K3" t="n">
-        <v>25342.99488522351</v>
+        <v>19608.42855040609</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>70460.80690932019</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>72091.35261608617</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19973.84716017452</v>
+        <v>12732.5212819199</v>
       </c>
       <c r="C4" t="n">
-        <v>22196.27613594853</v>
+        <v>16333.27348544816</v>
       </c>
       <c r="D4" t="n">
-        <v>11600.2349971284</v>
+        <v>19973.84716017453</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85199.0818558723</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26485,31 +26487,31 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="I5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829947.5719059514</v>
+        <v>-480633.6077735565</v>
       </c>
       <c r="C6" t="n">
-        <v>85854.13138847263</v>
+        <v>40249.40196262443</v>
       </c>
       <c r="D6" t="n">
-        <v>28835.78297206087</v>
+        <v>-117349.8676358399</v>
       </c>
       <c r="E6" t="n">
-        <v>255090.523412399</v>
+        <v>-20940.22235451124</v>
       </c>
       <c r="F6" t="n">
         <v>255090.5234123989</v>
@@ -26537,31 +26539,31 @@
         <v>255090.5234123988</v>
       </c>
       <c r="H6" t="n">
-        <v>255090.5234123989</v>
+        <v>255090.523412399</v>
       </c>
       <c r="I6" t="n">
-        <v>255090.5234123989</v>
+        <v>255090.5234123986</v>
       </c>
       <c r="J6" t="n">
-        <v>113249.3976747386</v>
+        <v>206025.578683854</v>
       </c>
       <c r="K6" t="n">
-        <v>229747.5285271755</v>
+        <v>235482.0948619929</v>
       </c>
       <c r="L6" t="n">
-        <v>206796.5534042081</v>
+        <v>184629.7165030787</v>
       </c>
       <c r="M6" t="n">
-        <v>255090.523412399</v>
+        <v>182999.1707963126</v>
       </c>
       <c r="N6" t="n">
         <v>255090.5234123988</v>
       </c>
       <c r="O6" t="n">
-        <v>255090.5234123989</v>
+        <v>255090.5234123988</v>
       </c>
       <c r="P6" t="n">
-        <v>255090.5234123989</v>
+        <v>255090.5234123986</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376848</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261639</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
+        <v>542.1149567261632</v>
+      </c>
+      <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376848</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>80.3542275798543</v>
+        <v>65.58507285657311</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>239.6556507682061</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>236.0660360556142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261639</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>98.46987537387486</v>
+        <v>76.18829283518588</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261635</v>
+        <v>187.5255871663204</v>
       </c>
       <c r="K4" t="n">
-        <v>98.4698753738752</v>
+        <v>76.18829283518576</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261639</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>98.46987537387486</v>
+        <v>76.18829283518588</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.432002671508278</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>35.14799735958416</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>132.312282993323</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>291.286936740926</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>436.5636098258715</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5957615840431</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6296390934783</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>612.3808166839013</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>578.2538401190908</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>493.5262741662302</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6176784928398</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>78.20676087699496</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>15.02359169452749</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.836283316175398</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>17.73463097464134</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>63.2229124209512</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>173.4885040076063</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>296.5194861913579</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>398.7070419616801</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>465.2723121730381</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>477.5866858152847</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>436.8985133884509</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>350.6495746475634</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>234.3999545349508</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>114.0106430867497</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>34.10815721053861</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>7.40151038405785</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539478247526972</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>13.68736114619436</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>46.29630948017478</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
-        <v>178.8593818490428</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>228.8784296368737</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>241.3202129282508</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>235.582157642014</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>217.5982526595398</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1928964099894</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.9103103451904</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>69.22054011153094</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>26.82890727735641</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>6.577770693978881</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32257,7 +32259,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
         <v>99.83230779806951</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33661,7 +33663,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623184</v>
       </c>
       <c r="M35" t="n">
         <v>769.2673490574995</v>
@@ -33740,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33916,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33971,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356356</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2410322142397</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>216.4737587808909</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8293466140559</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>372.2834058662056</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>382.9677530873104</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>348.155628697404</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>262.2932784109606</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.3119886183904</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.65087734093964</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1432842295775</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>260.1526621818059</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>323.1382782510198</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>346.2449737319514</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>294.3022689440064</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>344.6528582271199</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.41818044892926</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
-        <v>13.85280893410659</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.48193198348417</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>156.5898900231599</v>
+        <v>92.63945645062408</v>
       </c>
       <c r="L4" t="n">
-        <v>256.4684548971899</v>
+        <v>110.4529028080739</v>
       </c>
       <c r="M4" t="n">
-        <v>280.9040898900913</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="N4" t="n">
-        <v>279.7143300212426</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="O4" t="n">
-        <v>242.1833805735795</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P4" t="n">
-        <v>183.4714556748829</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.74826709349601</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419607</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>423.1432842295773</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>236.2486803769224</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37309,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923311</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37388,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37564,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597762</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698340.3979660786</v>
+        <v>659112.7680133593</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12477039.73816156</v>
+        <v>12441881.51229507</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7009463.231764773</v>
+        <v>5567936.647039155</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9126030.188353421</v>
+        <v>9832267.361990418</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.70122005612006</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7.692555326863111</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663202</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663202</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663202</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>49.9838314936302</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663202</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663202</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>132.563741195361</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>112.751666541193</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553079</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>385.1286664604029</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>232.2791855053266</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>156.2640235680252</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>65.84451497940194</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>160.2733359583709</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.2066400136035</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>345.3206576362721</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1223,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,10 +1277,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>188.8454718133048</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>112.2752214340036</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>170.7007650895372</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>308.3664578818486</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>30.77469809480214</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>148.8861194900055</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>42.34070507092564</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1666,13 +1666,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>241.2961069777039</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>82.5794608326194</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>10.2872313328145</v>
+        <v>125.9227012499635</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>170.8065716692282</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>161.6707081197638</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>24.9028221586777</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>118.3069478219486</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>77.95264323204898</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>24.80896182930122</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>16.32203054610675</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>142.6955872305736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>70.82764119510665</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>268.9078486702793</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>9.099193441180152</v>
       </c>
     </row>
     <row r="27">
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>37.59617708813238</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>17.15794421524323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>186.8250998946393</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>349.5745610625981</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>121.9845242150809</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>26.34654796018458</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>68.35584245823071</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>302.883664041259</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>147.83689146714</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>261.3318475681859</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>126.5388824951704</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486467</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>148.5873298926978</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>92.82283586139575</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>157.8097232340285</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>37.59617708813283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>125.024709443816</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.2901074925135481</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>142.6955872305736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3982,13 +3982,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>134.0513867710703</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>180.1539931446482</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>112.0837488531068</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>61.91576449868327</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7407511348962</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="C2" t="n">
-        <v>141.7407511348962</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="D2" t="n">
-        <v>141.7407511348962</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E2" t="n">
-        <v>141.7407511348962</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F2" t="n">
-        <v>141.7407511348962</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678506</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058973</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985592</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652808</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>710.0001061843515</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>710.0001061843515</v>
+        <v>2554.569070494233</v>
       </c>
       <c r="U2" t="n">
-        <v>710.0001061843515</v>
+        <v>2300.988009758412</v>
       </c>
       <c r="V2" t="n">
-        <v>520.5803211678664</v>
+        <v>1969.925122414842</v>
       </c>
       <c r="W2" t="n">
-        <v>520.5803211678664</v>
+        <v>1617.156467144728</v>
       </c>
       <c r="X2" t="n">
-        <v>331.1605361513813</v>
+        <v>1243.690708883648</v>
       </c>
       <c r="Y2" t="n">
-        <v>141.7407511348962</v>
+        <v>853.5513769078361</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>320.7740599518762</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C3" t="n">
-        <v>320.7740599518762</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518762</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464207</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330562</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652808</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>699.6136299848463</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>510.1938449683612</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>320.7740599518762</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>320.7740599518762</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>320.7740599518762</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>320.7740599518762</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>320.7740599518762</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750.1023486652808</v>
+        <v>291.0047021228128</v>
       </c>
       <c r="C4" t="n">
-        <v>750.1023486652808</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D4" t="n">
-        <v>750.1023486652808</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E4" t="n">
-        <v>636.2117764014495</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>489.3218289035391</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>320.6330054664541</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594235</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394166</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340736</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287306</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652808</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652808</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652808</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652808</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652808</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652808</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652808</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652808</v>
+        <v>990.0598878880304</v>
       </c>
       <c r="W4" t="n">
-        <v>750.1023486652808</v>
+        <v>700.6427178510698</v>
       </c>
       <c r="X4" t="n">
-        <v>750.1023486652808</v>
+        <v>472.6531669530525</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.1023486652808</v>
+        <v>472.6531669530525</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287.4747669672984</v>
+        <v>1308.132293616578</v>
       </c>
       <c r="C5" t="n">
-        <v>287.4747669672984</v>
+        <v>1308.132293616578</v>
       </c>
       <c r="D5" t="n">
-        <v>287.4747669672984</v>
+        <v>1308.132293616578</v>
       </c>
       <c r="E5" t="n">
-        <v>287.4747669672984</v>
+        <v>922.3440410183339</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006024</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006024</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>820.230080101654</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>553.8524235344762</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X5" t="n">
-        <v>553.8524235344762</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="Y5" t="n">
-        <v>287.4747669672984</v>
+        <v>1694.7321336807</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>475.8035330399423</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957456</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298711</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263948</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289997</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557294</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891328</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166541</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>730.0408897681439</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>730.0408897681439</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>730.0408897681439</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>475.8035330399423</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>475.8035330399423</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>475.8035330399423</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.32155393434486</v>
+        <v>751.3310369968233</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434486</v>
+        <v>582.3948540689164</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434486</v>
+        <v>582.3948540689164</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434486</v>
+        <v>434.4817604865233</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434486</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434486</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434486</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434486</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227043</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407072</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512186</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>557.3836987074096</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>291.0060421402317</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>36.32155393434486</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>36.32155393434486</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X7" t="n">
-        <v>36.32155393434486</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.32155393434486</v>
+        <v>932.979501827063</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1983.4026147697</v>
+        <v>1499.25774746436</v>
       </c>
       <c r="C8" t="n">
-        <v>1614.440097829288</v>
+        <v>1499.25774746436</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.174399222538</v>
+        <v>1140.992048857609</v>
       </c>
       <c r="E8" t="n">
-        <v>870.3861466242934</v>
+        <v>755.2037962593652</v>
       </c>
       <c r="F8" t="n">
-        <v>459.4002418346858</v>
+        <v>755.2037962593652</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>406.3950511722217</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>254.0744928369593</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>586.364312131902</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>1035.500977900981</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>2612.501248106873</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>3005.546484356408</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>3252.53434141264</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>3200.225838528231</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>3200.225838528231</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>2946.694380314937</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>2615.631492971366</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>2262.862837701251</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904653</v>
+        <v>1889.397079440172</v>
       </c>
       <c r="Y8" t="n">
-        <v>2168.459826904653</v>
+        <v>1499.25774746436</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>758.3254512019777</v>
+        <v>931.3156003142904</v>
       </c>
       <c r="C9" t="n">
-        <v>583.8724219208507</v>
+        <v>756.8625710331634</v>
       </c>
       <c r="D9" t="n">
-        <v>434.9380122595995</v>
+        <v>607.928161371912</v>
       </c>
       <c r="E9" t="n">
-        <v>275.700557254144</v>
+        <v>448.6907063664564</v>
       </c>
       <c r="F9" t="n">
-        <v>275.700557254144</v>
+        <v>302.1561483933415</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>165.7864839520668</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>75.22119252365748</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>159.2853526912743</v>
       </c>
       <c r="K9" t="n">
-        <v>508.4654164929048</v>
+        <v>396.5106591183473</v>
       </c>
       <c r="L9" t="n">
-        <v>766.0165520528924</v>
+        <v>761.8119001858315</v>
       </c>
       <c r="M9" t="n">
-        <v>1085.923447521402</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N9" t="n">
-        <v>1428.705971516033</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O9" t="n">
-        <v>1720.065217770599</v>
+        <v>2088.738397943177</v>
       </c>
       <c r="P9" t="n">
-        <v>1934.5736333315</v>
+        <v>2398.00944543187</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904653</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406371</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880347</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U9" t="n">
-        <v>1606.683255013611</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V9" t="n">
-        <v>1371.531146781868</v>
+        <v>1769.380093033047</v>
       </c>
       <c r="W9" t="n">
-        <v>1117.293790053667</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X9" t="n">
-        <v>926.5407882220456</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y9" t="n">
-        <v>926.5407882220456</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>769.8287052088427</v>
+        <v>494.2235235192356</v>
       </c>
       <c r="C10" t="n">
-        <v>769.8287052088427</v>
+        <v>494.2235235192356</v>
       </c>
       <c r="D10" t="n">
-        <v>619.712065796507</v>
+        <v>494.2235235192356</v>
       </c>
       <c r="E10" t="n">
-        <v>471.7989722141139</v>
+        <v>380.814208939434</v>
       </c>
       <c r="F10" t="n">
-        <v>471.7989722141139</v>
+        <v>233.9242614415236</v>
       </c>
       <c r="G10" t="n">
-        <v>303.6661428091322</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="H10" t="n">
-        <v>153.6259293129249</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>314.317742817943</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>630.0756374886842</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>973.3871879897968</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="S10" t="n">
-        <v>1486.355378693647</v>
+        <v>1729.869392788394</v>
       </c>
       <c r="T10" t="n">
-        <v>1486.355378693647</v>
+        <v>1729.869392788394</v>
       </c>
       <c r="U10" t="n">
-        <v>1313.93036345169</v>
+        <v>1440.766225735853</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.245875245803</v>
+        <v>1186.081737529966</v>
       </c>
       <c r="W10" t="n">
-        <v>769.8287052088427</v>
+        <v>896.6645674930055</v>
       </c>
       <c r="X10" t="n">
-        <v>769.8287052088427</v>
+        <v>896.6645674930055</v>
       </c>
       <c r="Y10" t="n">
-        <v>769.8287052088427</v>
+        <v>675.8719883494754</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1206.953318337195</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="C11" t="n">
-        <v>1206.953318337195</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D11" t="n">
-        <v>1206.953318337195</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E11" t="n">
-        <v>821.1650657389509</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G11" t="n">
         <v>406.0926155839475</v>
@@ -5041,16 +5041,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3294.520267978057</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3294.520267978057</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3040.989791251894</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2709.926903908323</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>2357.158248638209</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.692490377129</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y11" t="n">
-        <v>1593.553158401317</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>752.0141191112407</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>531.2215399677106</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1548.393281286113</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="C14" t="n">
-        <v>1179.430764345701</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D14" t="n">
-        <v>821.1650657389509</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923659</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653545</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X14" t="n">
-        <v>1938.532613261925</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y14" t="n">
-        <v>1548.393281286113</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5363,7 +5363,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>880.2242361621296</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C16" t="n">
-        <v>711.2880532342227</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D16" t="n">
-        <v>561.171413821887</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E16" t="n">
-        <v>561.171413821887</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>880.2242361621296</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>880.2242361621296</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.2242361621296</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1611.504630229389</v>
+        <v>1405.52688261361</v>
       </c>
       <c r="C17" t="n">
-        <v>1242.542113288977</v>
+        <v>1036.564365673198</v>
       </c>
       <c r="D17" t="n">
-        <v>1232.150970528558</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5539,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.243802269322</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X17" t="n">
-        <v>2388.243802269322</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y17" t="n">
-        <v>1998.104470293511</v>
+        <v>1792.126722677732</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>528.3452334219998</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C19" t="n">
-        <v>528.3452334219998</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D19" t="n">
-        <v>528.3452334219998</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E19" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.507193008249</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W19" t="n">
-        <v>1094.090022971289</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X19" t="n">
-        <v>930.7862773957696</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.9936982522395</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1175.300932605788</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C20" t="n">
-        <v>1150.146566788942</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>791.8808681821918</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520487</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176916</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W20" t="n">
-        <v>2325.505862906802</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X20" t="n">
-        <v>1952.040104645722</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y20" t="n">
-        <v>1561.90077266991</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1042.179465010818</v>
+        <v>459.8449442241111</v>
       </c>
       <c r="C22" t="n">
-        <v>922.6774975139006</v>
+        <v>459.8449442241111</v>
       </c>
       <c r="D22" t="n">
-        <v>772.5608581015648</v>
+        <v>459.8449442241111</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.294548088492</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1672.610059882605</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>1672.610059882605</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>1444.620508984588</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y22" t="n">
-        <v>1223.827929841058</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1238.038871968308</v>
+        <v>1959.241091287692</v>
       </c>
       <c r="C23" t="n">
-        <v>1238.038871968308</v>
+        <v>1590.27857434728</v>
       </c>
       <c r="D23" t="n">
-        <v>879.7731733615572</v>
+        <v>1232.01287574053</v>
       </c>
       <c r="E23" t="n">
-        <v>493.9849207633129</v>
+        <v>846.2246231422855</v>
       </c>
       <c r="F23" t="n">
-        <v>82.99901597370535</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>82.99901597370535</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>82.99901597370535</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
@@ -6004,37 +6004,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883006</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539435</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269321</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.778044008241</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y23" t="n">
-        <v>1624.638712032429</v>
+        <v>2345.840931351814</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
         <v>315.6219318279954</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1638.191681214136</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>1638.191681214136</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2201.7190780849</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1832.756561144488</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>1474.490862537738</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>1088.702609939494</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>677.7167051498861</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410102</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>2961.784676410102</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W26" t="n">
-        <v>2961.784676410102</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X26" t="n">
-        <v>2588.318918149022</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y26" t="n">
-        <v>2588.318918149022</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
         <v>176.0213023927779</v>
@@ -6305,22 +6305,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.8377936138381</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>163.8377936138381</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>163.8377936138381</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E28" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W28" t="n">
-        <v>590.8070661251691</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X28" t="n">
-        <v>362.8175152271517</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>345.4862584440777</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796252</v>
+        <v>1616.654488422265</v>
       </c>
       <c r="C29" t="n">
-        <v>552.8079389392135</v>
+        <v>1616.654488422265</v>
       </c>
       <c r="D29" t="n">
-        <v>364.0957168234162</v>
+        <v>1258.388789815514</v>
       </c>
       <c r="E29" t="n">
-        <v>364.0957168234162</v>
+        <v>872.6005372172699</v>
       </c>
       <c r="F29" t="n">
-        <v>364.0957168234162</v>
+        <v>461.6146324276623</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2393.393660462198</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>2003.254328486386</v>
       </c>
     </row>
     <row r="30">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>652.2346852641123</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C31" t="n">
         <v>529.0179941377679</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621296</v>
+        <v>1389.812391076405</v>
       </c>
       <c r="W31" t="n">
-        <v>880.2242361621296</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="X31" t="n">
-        <v>652.2346852641123</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="Y31" t="n">
-        <v>652.2346852641123</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2003.254328486386</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3119.628073993392</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V32" t="n">
-        <v>3119.628073993392</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W32" t="n">
-        <v>2766.859418723278</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X32" t="n">
-        <v>2393.393660462198</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y32" t="n">
-        <v>2003.254328486386</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.5121164321834</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1224.739181610489</v>
+        <v>1556.197739256867</v>
       </c>
       <c r="V34" t="n">
-        <v>970.0546934046018</v>
+        <v>1301.51325105098</v>
       </c>
       <c r="W34" t="n">
-        <v>680.6375233676413</v>
+        <v>1012.09608101402</v>
       </c>
       <c r="X34" t="n">
-        <v>452.6479724696239</v>
+        <v>784.1065301160024</v>
       </c>
       <c r="Y34" t="n">
-        <v>231.8553933260938</v>
+        <v>563.3139509724723</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2047.583838282732</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C35" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6964,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3197.788768583745</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>3197.788768583745</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W35" t="n">
-        <v>3197.788768583745</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X35" t="n">
-        <v>2824.323010322666</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y35" t="n">
-        <v>2434.183678346854</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1611.040576735003</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C37" t="n">
-        <v>1611.040576735003</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D37" t="n">
-        <v>1611.040576735003</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>1611.040576735003</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>1611.040576735003</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>1611.040576735003</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193524</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.32286476305</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888694</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V37" t="n">
-        <v>2278.535509682807</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W37" t="n">
-        <v>1989.118339645846</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X37" t="n">
-        <v>1761.128788747829</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y37" t="n">
-        <v>1611.040576735003</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
@@ -7201,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W38" t="n">
-        <v>3155.791869823214</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X38" t="n">
-        <v>2782.326111562134</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.186779586323</v>
+        <v>2141.344278546768</v>
       </c>
     </row>
     <row r="39">
@@ -7253,13 +7253,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2078.679253373406</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C40" t="n">
-        <v>1909.7430704455</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D40" t="n">
-        <v>1759.626431033164</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E40" t="n">
-        <v>1611.713337450771</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.60582160917</v>
+        <v>1678.060330003568</v>
       </c>
       <c r="U40" t="n">
-        <v>3036.502954734814</v>
+        <v>1388.957463129211</v>
       </c>
       <c r="V40" t="n">
-        <v>2998.527018282154</v>
+        <v>1134.272974923324</v>
       </c>
       <c r="W40" t="n">
-        <v>2709.109848245193</v>
+        <v>844.8558048863637</v>
       </c>
       <c r="X40" t="n">
-        <v>2481.120297347176</v>
+        <v>616.8662539883463</v>
       </c>
       <c r="Y40" t="n">
-        <v>2260.327718203646</v>
+        <v>396.0736748448162</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1590.514489367197</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C41" t="n">
-        <v>1221.551972426786</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.312783737945</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3071.782307011781</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V41" t="n">
-        <v>2740.71941966821</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W41" t="n">
-        <v>2740.71941966821</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.25366140713</v>
+        <v>2492.631839006149</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.114329431319</v>
+        <v>2102.492507030337</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7602,19 +7602,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.191681214136</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.191681214136</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W43" t="n">
-        <v>1638.191681214136</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2303.170539913434</v>
+        <v>1533.918936517076</v>
       </c>
       <c r="C44" t="n">
-        <v>1934.208022973022</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.942324366272</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F44" t="n">
         <v>779.1681669784198</v>
@@ -7642,58 +7642,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136267</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>3079.909711953368</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V44" t="n">
-        <v>3079.909711953368</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W44" t="n">
-        <v>3079.909711953368</v>
+        <v>2684.123866818089</v>
       </c>
       <c r="X44" t="n">
-        <v>3079.909711953368</v>
+        <v>2310.658108557009</v>
       </c>
       <c r="Y44" t="n">
-        <v>2689.770379977556</v>
+        <v>1920.518776581197</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,40 +7733,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>691.6489789975192</v>
+        <v>496.5773008749145</v>
       </c>
       <c r="C46" t="n">
-        <v>522.7127960696123</v>
+        <v>327.6411179470076</v>
       </c>
       <c r="D46" t="n">
-        <v>372.5961566572765</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>372.5961566572765</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7836,22 +7836,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214137</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>1383.50719300825</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W46" t="n">
-        <v>1094.090022971289</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X46" t="n">
-        <v>1094.090022971289</v>
+        <v>899.0183448486844</v>
       </c>
       <c r="Y46" t="n">
-        <v>873.2974438277589</v>
+        <v>678.2257657051542</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>98.29368706161306</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711118</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.939397511106</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127288</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>141.8304999279933</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368126</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>119.074593133933</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>198.9656296533707</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038147</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121488</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22640,13 +22640,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714232</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>99.7864131973194</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681015</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377072</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>34.68307990326687</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>33.68229610537614</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845744</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>21.74737928130855</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>95.47307296480832</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590693</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22877,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>38.57696401685163</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>79.57653304352931</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>62.94100992119493</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117139</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.5272016498771</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>65.61321392042163</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23111,7 +23111,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23120,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23165,10 +23165,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>16.92751339017263</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>34.15874121256557</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U10" t="n">
-        <v>115.5342927261795</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>74.36738378163193</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>78.4130636933737</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>76.8235358990317</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>322.9321867000819</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>128.4349937007651</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>62.84158719031184</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>344.3958102878685</v>
+        <v>228.7603403707195</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>81.33107165459981</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>64.03894726927336</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>340.3700696123299</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>82.8793596908057</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>48.93987327667921</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>68.48131941452019</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>382.0670839124102</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>25.25489922681921</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>83.0140681584636</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>147.7570121569881</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>142.0138769831742</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>377.1387452148734</v>
       </c>
     </row>
     <row r="27">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>201.4267091368516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>167.8579417260436</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>61.3471645908553</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>45.26229688354692</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>225.7910953636434</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>296.9170493127768</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24970,10 +24970,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>66.84743663721002</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.142136056966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,7 +25092,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,13 +25125,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>138.3749467384729</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>121.4019940952946</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>124.4562894637316</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25329,7 +25329,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.99732345939702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>289.9110058020848</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -25450,13 +25450,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>61.7392260421407</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>214.5414662356952</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>257.7091322196646</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.6278626471066</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>83.0140681584636</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>116.9437851878317</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>169.0869755727649</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>36.53172416510559</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.50528352424797</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>463673.9492869361</v>
+        <v>786603.5371079205</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>526021.0465876195</v>
+        <v>786603.5371079206</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>718396.6610026539</v>
+        <v>861976.3556801414</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975238</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975233</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180441.6164408227</v>
+        <v>305971.6304943085</v>
       </c>
       <c r="C2" t="n">
-        <v>203966.5811971124</v>
+        <v>305971.6304943086</v>
       </c>
       <c r="D2" t="n">
-        <v>279547.2423401895</v>
+        <v>340317.4959346298</v>
       </c>
       <c r="E2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="G2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="H2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="I2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="J2" t="n">
         <v>340997.0989709204</v>
       </c>
       <c r="K2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="L2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="M2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709204</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="P2" t="n">
         <v>340997.0989709205</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>84336.10254477357</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>291724.1809599827</v>
+        <v>188889.5747428875</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>3532.782152305605</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854474</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>19608.42855040609</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>70460.80690932019</v>
+        <v>47356.91677008691</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608617</v>
+        <v>922.661869242363</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12732.5212819199</v>
+        <v>22196.27613594851</v>
       </c>
       <c r="C4" t="n">
-        <v>16333.27348544816</v>
+        <v>22196.27613594852</v>
       </c>
       <c r="D4" t="n">
-        <v>19973.84716017453</v>
+        <v>11801.276833267</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
@@ -26469,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>107642.9682537726</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="G5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
@@ -26508,10 +26508,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-480633.6077735565</v>
+        <v>-929141.664379296</v>
       </c>
       <c r="C6" t="n">
-        <v>40249.40196262443</v>
+        <v>185610.1191966237</v>
       </c>
       <c r="D6" t="n">
-        <v>-117349.8676358399</v>
+        <v>28473.50665482703</v>
       </c>
       <c r="E6" t="n">
-        <v>-20940.22235451124</v>
+        <v>248081.5519620322</v>
       </c>
       <c r="F6" t="n">
-        <v>255090.5234123989</v>
+        <v>251614.3341143377</v>
       </c>
       <c r="G6" t="n">
-        <v>255090.5234123988</v>
+        <v>251614.3341143378</v>
       </c>
       <c r="H6" t="n">
-        <v>255090.523412399</v>
+        <v>251614.3341143377</v>
       </c>
       <c r="I6" t="n">
-        <v>255090.5234123986</v>
+        <v>251614.334114338</v>
       </c>
       <c r="J6" t="n">
-        <v>206025.578683854</v>
+        <v>84009.15630435525</v>
       </c>
       <c r="K6" t="n">
-        <v>235482.0948619929</v>
+        <v>251614.3341143377</v>
       </c>
       <c r="L6" t="n">
-        <v>184629.7165030787</v>
+        <v>204257.417344251</v>
       </c>
       <c r="M6" t="n">
-        <v>182999.1707963126</v>
+        <v>250691.6722450955</v>
       </c>
       <c r="N6" t="n">
-        <v>255090.5234123988</v>
+        <v>251614.3341143377</v>
       </c>
       <c r="O6" t="n">
-        <v>255090.5234123988</v>
+        <v>251614.334114338</v>
       </c>
       <c r="P6" t="n">
-        <v>255090.5234123986</v>
+        <v>251614.3341143378</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
@@ -26828,10 +26828,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>65.58507285657311</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>239.6556507682061</v>
+        <v>152.6905150447475</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>3.0212934310116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>76.18829283518588</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>278.4010767246571</v>
+        <v>187.114187268954</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761294</v>
+        <v>3.702436033299819</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663204</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518576</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246571</v>
+        <v>187.1141872689543</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>3.702436033299477</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518588</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246571</v>
+        <v>187.114187268954</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>3.702436033299819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32013,7 +32013,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.151212309905</v>
       </c>
       <c r="P14" t="n">
         <v>629.9949819746414</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33663,7 +33663,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
         <v>769.2673490574995</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062408</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>110.4529028080739</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663202</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663202</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732831</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>436.6197581489562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877692</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>453.6733997667467</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>550.1346115329959</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>506.0065528336489</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1432842295773</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.2486803769224</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882182</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
